--- a/biology/Botanique/Roseraie/Roseraie.xlsx
+++ b/biology/Botanique/Roseraie/Roseraie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une roseraie est un jardin, ou souvent une partie d'un jardin plus important, dans lequel sont plantés principalement des rosiers. Pour certains auteurs, il convient de distinguer la « roseraie », en tant que collection botanique, du « jardin de roses », à vocation ornementale[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une roseraie est un jardin, ou souvent une partie d'un jardin plus important, dans lequel sont plantés principalement des rosiers. Pour certains auteurs, il convient de distinguer la « roseraie », en tant que collection botanique, du « jardin de roses », à vocation ornementale.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Fonctions et styles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La roseraie peut avoir plusieurs fonctions, qui peuvent parfois être confondues :
 jardin d'agrément dont la rose constitue l’élément principal sinon unique de décoration végétale, jardin qui peut être privé ou public ;
@@ -547,7 +561,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La toute première roseraie française connue est celle du roi Childebert.
 La première roseraie conservatoire fut créée par Joséphine de Beauharnais dans le parc de la Malmaison au début du XIXe siècle.
@@ -585,13 +601,88 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Roseraie classique
-Sa structure est très géométrique avec des parterres en broderies souvent entourés de buis, des pergolas et des tuteurs en colonnes pour soutenir les rosiers grimpants. Elle a un aspect strict et les rosiers sont soumis à une taille sévère pour garder la symétrie des compositions. Elle permet la mise en valeur de collections répertoriées et étiquetées.
+          <t>Roseraie classique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa structure est très géométrique avec des parterres en broderies souvent entourés de buis, des pergolas et des tuteurs en colonnes pour soutenir les rosiers grimpants. Elle a un aspect strict et les rosiers sont soumis à une taille sévère pour garder la symétrie des compositions. Elle permet la mise en valeur de collections répertoriées et étiquetées.
 On peut citer comme exemples typiques la roseraie du Val-de-Marne, la roseraie classique de Bagatelle, la roseraie  internationale de Courtrai, la roseraie de Montevideo et celle du jardin botanique de Mainau.
-Roseraie jardinée
-Elle associe aux rosiers diverses autres plantes qui en assurent la mise en valeur. C'est le cas de nombre de roseraies d'amateurs, mais aussi de roseraies anglaises célèbres et tout spécialement de Mottisfont Abbey et de Bone Hill.
-Roseraie parcs
-Ce sont les roseraies des parcs à l'anglaise dans lesquelles les lignes droites et les symétries sont proscrites. Les rosiers gardent des formes libres. Ainsi, la roseraie de paysage du parc de Bagatelle, les quatre roseraies du parc de la Tête d'Or à Lyon, le parc de la Source à Orléans, celles de L'Haÿ-les-Roses et beaucoup d'autres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Roseraie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roseraie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Types de roseraie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Roseraie jardinée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle associe aux rosiers diverses autres plantes qui en assurent la mise en valeur. C'est le cas de nombre de roseraies d'amateurs, mais aussi de roseraies anglaises célèbres et tout spécialement de Mottisfont Abbey et de Bone Hill.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Roseraie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roseraie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Types de roseraie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Roseraie parcs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont les roseraies des parcs à l'anglaise dans lesquelles les lignes droites et les symétries sont proscrites. Les rosiers gardent des formes libres. Ainsi, la roseraie de paysage du parc de Bagatelle, les quatre roseraies du parc de la Tête d'Or à Lyon, le parc de la Source à Orléans, celles de L'Haÿ-les-Roses et beaucoup d'autres.
 </t>
         </is>
       </c>
